--- a/Test Data Driven/AI-Generated/Common/proceedToCheckoutAndInputShippingDetails.xlsx
+++ b/Test Data Driven/AI-Generated/Common/proceedToCheckoutAndInputShippingDetails.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,20 +453,7 @@
     <col width="31" customWidth="1" min="5" max="5"/>
     <col width="31" customWidth="1" min="6" max="6"/>
     <col width="31" customWidth="1" min="7" max="7"/>
-    <col width="43" customWidth="1" min="8" max="8"/>
-    <col width="45" customWidth="1" min="9" max="9"/>
-    <col width="46" customWidth="1" min="10" max="10"/>
-    <col width="46" customWidth="1" min="11" max="11"/>
-    <col width="46" customWidth="1" min="12" max="12"/>
-    <col width="45" customWidth="1" min="13" max="13"/>
-    <col width="45" customWidth="1" min="14" max="14"/>
-    <col width="45" customWidth="1" min="15" max="15"/>
-    <col width="45" customWidth="1" min="16" max="16"/>
-    <col width="45" customWidth="1" min="17" max="17"/>
-    <col width="45" customWidth="1" min="18" max="18"/>
-    <col width="45" customWidth="1" min="19" max="19"/>
-    <col width="45" customWidth="1" min="20" max="20"/>
-    <col width="13" customWidth="1" min="21" max="21"/>
+    <col width="13" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,71 +493,6 @@
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>button_inputShippingDetails_internalLabel</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>button_inputShippingDetails_internalLabel_1</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>button_inputShippingDetails_internalLabel_10</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>button_inputShippingDetails_internalLabel_11</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>button_inputShippingDetails_internalLabel_12</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>button_inputShippingDetails_internalLabel_2</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>button_inputShippingDetails_internalLabel_3</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>button_inputShippingDetails_internalLabel_4</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>button_inputShippingDetails_internalLabel_5</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>button_inputShippingDetails_internalLabel_6</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>button_inputShippingDetails_internalLabel_7</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>button_inputShippingDetails_internalLabel_8</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>button_inputShippingDetails_internalLabel_9</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>input_email</t>
         </is>
@@ -584,72 +506,7 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Email *</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>First name *</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>City *</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>State</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>State</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>First name *</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Last name *</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Last name *</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Address *</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Address *</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>ZIP code *</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>ZIP code *</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>City *</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
